--- a/VT_REG1_TRA_V09.xlsx
+++ b/VT_REG1_TRA_V09.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Migrating Task\Training material_migrated\DemoS_009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JULIAN\Desktop\DEMO_009\Demo_009_TIMES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39109F4B-B48E-4E9C-AE29-EE1BE5B50EEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0E7631-090C-4C15-98FB-D63B2E5D50D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7875" tabRatio="901" activeTab="4"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="901" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EB1" sheetId="133" r:id="rId1"/>
@@ -27,12 +27,15 @@
   <definedNames>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,12 +43,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="C8" authorId="0" shapeId="0">
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -63,14 +66,14 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="J3" authorId="0" shapeId="0">
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -184,7 +187,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="1" shapeId="0">
+    <comment ref="O3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -210,7 +213,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="2" shapeId="0">
+    <comment ref="P3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -283,7 +286,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="2" shapeId="0">
+    <comment ref="Q3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -336,7 +339,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="2" shapeId="0">
+    <comment ref="R3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -369,7 +372,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P13" authorId="2" shapeId="0">
+    <comment ref="P13" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -462,7 +465,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q13" authorId="1" shapeId="0">
+    <comment ref="Q13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -487,7 +490,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R13" authorId="2" shapeId="0">
+    <comment ref="R13" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -550,7 +553,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J14" authorId="2" shapeId="0">
+    <comment ref="J14" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -798,14 +801,14 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="O3" authorId="0" shapeId="0">
+    <comment ref="O3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -919,7 +922,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T3" authorId="1" shapeId="0">
+    <comment ref="T3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -945,7 +948,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U3" authorId="2" shapeId="0">
+    <comment ref="U3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1018,7 +1021,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V3" authorId="2" shapeId="0">
+    <comment ref="V3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1071,7 +1074,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W3" authorId="2" shapeId="0">
+    <comment ref="W3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1104,7 +1107,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U10" authorId="2" shapeId="0">
+    <comment ref="U10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1197,7 +1200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V10" authorId="1" shapeId="0">
+    <comment ref="V10" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1222,7 +1225,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W10" authorId="2" shapeId="0">
+    <comment ref="W10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1285,7 +1288,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O11" authorId="2" shapeId="0">
+    <comment ref="O11" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
       <text>
         <r>
           <rPr>
@@ -2093,14 +2096,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="171" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="186" formatCode="0.000"/>
-    <numFmt numFmtId="187" formatCode="General_)"/>
-    <numFmt numFmtId="195" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="General_)"/>
+    <numFmt numFmtId="167" formatCode="\Te\x\t"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2108,6 +2111,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2130,32 +2134,6 @@
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -2613,27 +2591,27 @@
   </borders>
   <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="150">
@@ -2655,33 +2633,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10"/>
@@ -2701,83 +2679,83 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="28" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="24" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="4" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" xfId="7" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="7" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="187" fontId="13" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="22" fillId="10" borderId="0" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="20" fillId="8" borderId="4" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="18" fillId="10" borderId="0" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="16" fillId="8" borderId="4" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="8" borderId="5" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="8" borderId="5" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="187" fontId="20" fillId="8" borderId="6" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="16" fillId="8" borderId="6" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="15" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="15" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -2788,32 +2766,32 @@
     <xf numFmtId="2" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="13" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="13" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="3"/>
-    <xf numFmtId="187" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="3"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2821,7 +2799,7 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="3" fillId="15" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="3" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2830,35 +2808,35 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="13" fillId="15" borderId="10" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="9" fillId="15" borderId="10" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="15" borderId="1" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="15" borderId="1" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="15" borderId="11" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="15" borderId="11" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="15" borderId="2" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="15" borderId="2" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="10" borderId="1" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="22" fillId="10" borderId="16" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="22" fillId="10" borderId="2" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="22" fillId="10" borderId="14" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="18" fillId="10" borderId="1" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="18" fillId="10" borderId="16" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="18" fillId="10" borderId="2" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="18" fillId="10" borderId="14" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="0" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="28" fillId="13" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="24" fillId="13" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -2873,46 +2851,46 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="15" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="15" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="28" fillId="13" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="24" fillId="13" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="28" fillId="13" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="24" fillId="13" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="195" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="195" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="195" fontId="25" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="21" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="195" fontId="25" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="21" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
@@ -2920,24 +2898,24 @@
     <cellStyle name="60% - Accent2" xfId="3" builtinId="36"/>
     <cellStyle name="Accent2" xfId="4" builtinId="33"/>
     <cellStyle name="Calculation" xfId="5" builtinId="22"/>
-    <cellStyle name="Comma 2" xfId="6"/>
+    <cellStyle name="Comma 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Good" xfId="7" builtinId="26"/>
     <cellStyle name="Input" xfId="8" builtinId="20"/>
     <cellStyle name="Neutral" xfId="9" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="10"/>
-    <cellStyle name="Normal 2" xfId="11"/>
-    <cellStyle name="Normal 4" xfId="12"/>
-    <cellStyle name="Normal 4 2" xfId="13"/>
-    <cellStyle name="Normal 8" xfId="14"/>
-    <cellStyle name="Normal 9 2" xfId="15"/>
-    <cellStyle name="Normale_B2020" xfId="16"/>
+    <cellStyle name="Normal 10" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Normal 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Normal 4" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Normal 4 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Normal 8" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Normal 9 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Normale_B2020" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
     <cellStyle name="Percent" xfId="17" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="18"/>
-    <cellStyle name="Percent 3" xfId="19"/>
-    <cellStyle name="Percent 4" xfId="20"/>
-    <cellStyle name="Percent 5" xfId="21"/>
-    <cellStyle name="Standard_Sce_D_Extraction" xfId="22"/>
+    <cellStyle name="Percent 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Percent 3" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Percent 4" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Percent 5" xfId="21" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Standard_Sce_D_Extraction" xfId="22" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4078,6 +4056,11 @@
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1">
+        <row r="10">
+          <cell r="D10">
+            <v>-37.464700000000001</v>
+          </cell>
+        </row>
         <row r="16">
           <cell r="D16">
             <v>231.76075</v>
@@ -4857,28 +4840,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA31"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D9" sqref="D9:U9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" customWidth="1"/>
-    <col min="4" max="21" width="10.85546875" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.33203125" customWidth="1"/>
+    <col min="4" max="21" width="10.88671875" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X1" s="24" t="s">
         <v>93</v>
       </c>
@@ -4892,7 +4875,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C2" s="7"/>
       <c r="D2" s="54" t="s">
         <v>44</v>
@@ -4962,7 +4945,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="39.6" x14ac:dyDescent="0.25">
       <c r="C3" s="74" t="s">
         <v>126</v>
       </c>
@@ -5024,7 +5007,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B4" s="52"/>
       <c r="C4" s="96" t="s">
         <v>57</v>
@@ -5049,7 +5032,7 @@
       <c r="U4" s="9"/>
       <c r="V4" s="97"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="56" t="s">
         <v>58</v>
@@ -5134,7 +5117,7 @@
         <v>6254.3832000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="56" t="s">
         <v>60</v>
@@ -5219,7 +5202,7 @@
         <v>2603.2252500000004</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="56" t="s">
         <v>62</v>
@@ -5304,7 +5287,7 @@
         <v>6976.2315499999995</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="56" t="s">
         <v>64</v>
@@ -5389,7 +5372,7 @@
         <v>572.62840000000006</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="56" t="s">
         <v>66</v>
@@ -5474,7 +5457,7 @@
         <v>7688.2214999999987</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="56" t="s">
         <v>68</v>
@@ -5559,7 +5542,7 @@
         <v>1411.5191499999987</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="56" t="s">
         <v>86</v>
@@ -5644,7 +5627,7 @@
         <v>2323.8776500000004</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="56" t="s">
         <v>87</v>
@@ -5729,7 +5712,7 @@
         <v>1055.546</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="95" t="s">
         <v>89</v>
@@ -5805,7 +5788,7 @@
         <v>28885.632699999998</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="D14" s="10"/>
       <c r="F14" s="10"/>
@@ -5817,7 +5800,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="D15" s="10"/>
       <c r="F15" s="10"/>
@@ -5829,7 +5812,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="C16" s="60" t="s">
         <v>157</v>
@@ -5845,7 +5828,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="D17" s="10"/>
       <c r="F17" s="10"/>
@@ -5857,7 +5840,7 @@
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="D18" s="10"/>
       <c r="F18" s="10"/>
@@ -5869,7 +5852,7 @@
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="D19" s="10"/>
       <c r="F19" s="10"/>
@@ -5881,7 +5864,7 @@
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="D20" s="10"/>
       <c r="F20" s="10"/>
@@ -5893,7 +5876,7 @@
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="D21" s="10"/>
       <c r="F21" s="10"/>
@@ -5905,7 +5888,7 @@
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="D22" s="10"/>
       <c r="F22" s="10"/>
@@ -5917,12 +5900,12 @@
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="C23" s="25"/>
       <c r="D23" s="26"/>
     </row>
-    <row r="24" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="28" t="s">
         <v>102</v>
@@ -5988,7 +5971,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
       <c r="B25" s="105" t="s">
         <v>66</v>
@@ -6032,7 +6015,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="105" t="s">
         <v>66</v>
@@ -6082,15 +6065,15 @@
         <v>163</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="V27" s="8"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="V28" s="8"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="C29" s="71" t="s">
         <v>106</v>
@@ -6103,7 +6086,7 @@
       </c>
       <c r="V29" s="8"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="24" t="s">
         <v>117</v>
@@ -6119,7 +6102,7 @@
       </c>
       <c r="V30" s="8"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="56" t="s">
         <v>66</v>
@@ -6138,26 +6121,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:G5"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" customWidth="1"/>
+    <col min="1" max="1" width="1.88671875" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B3" s="86" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D5" s="87" t="s">
         <v>166</v>
       </c>
@@ -6173,36 +6156,36 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:R36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" customWidth="1"/>
+    <col min="11" max="11" width="7.109375" customWidth="1"/>
+    <col min="12" max="12" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="63" customWidth="1"/>
-    <col min="14" max="14" width="6.140625" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.140625" customWidth="1"/>
+    <col min="14" max="14" width="6.109375" customWidth="1"/>
+    <col min="15" max="15" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B1" s="12" t="s">
         <v>73</v>
       </c>
@@ -6223,7 +6206,7 @@
       </c>
       <c r="H1" s="43"/>
     </row>
-    <row r="2" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="14" t="str">
         <f>'EB1'!B9</f>
         <v>TRA</v>
@@ -6259,7 +6242,7 @@
       <c r="Q2" s="136"/>
       <c r="R2" s="136"/>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="J3" s="137" t="s">
         <v>7</v>
       </c>
@@ -6288,7 +6271,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:18" s="6" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" s="6" customFormat="1" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
@@ -6322,7 +6305,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -6351,7 +6334,7 @@
       <c r="Q5" s="140"/>
       <c r="R5" s="140"/>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -6378,7 +6361,7 @@
       <c r="Q6" s="140"/>
       <c r="R6" s="140"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -6405,7 +6388,7 @@
       <c r="Q7" s="140"/>
       <c r="R7" s="140"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -6432,7 +6415,7 @@
       <c r="Q8" s="140"/>
       <c r="R8" s="140"/>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -6459,7 +6442,7 @@
       <c r="Q9" s="142"/>
       <c r="R9" s="142"/>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -6490,11 +6473,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="L11" s="32"/>
       <c r="M11" s="34"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D12" s="5" t="s">
         <v>13</v>
       </c>
@@ -6512,7 +6495,7 @@
       <c r="Q12" s="142"/>
       <c r="R12" s="142"/>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="21" t="s">
         <v>1</v>
       </c>
@@ -6562,7 +6545,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="2:18" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:18" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="20" t="s">
         <v>39</v>
       </c>
@@ -6612,7 +6595,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="19" t="s">
         <v>91</v>
       </c>
@@ -6639,7 +6622,7 @@
       <c r="Q15" s="143"/>
       <c r="R15" s="143"/>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" t="str">
         <f t="shared" ref="B16:B21" si="1">L16</f>
         <v>FTE-TRAGAS</v>
@@ -6684,7 +6667,7 @@
       <c r="Q16" s="140"/>
       <c r="R16" s="140"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" t="str">
         <f t="shared" si="1"/>
         <v>FTE-TRADSL</v>
@@ -6727,7 +6710,7 @@
       <c r="Q17" s="140"/>
       <c r="R17" s="140"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" t="str">
         <f t="shared" si="1"/>
         <v>FTE-TRALPG</v>
@@ -6770,7 +6753,7 @@
       <c r="Q18" s="140"/>
       <c r="R18" s="140"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" t="str">
         <f t="shared" si="1"/>
         <v>FTE-TRAGSL</v>
@@ -6813,7 +6796,7 @@
       <c r="Q19" s="140"/>
       <c r="R19" s="140"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" t="str">
         <f t="shared" si="1"/>
         <v>FTE-TRABIO</v>
@@ -6856,7 +6839,7 @@
       <c r="Q20" s="140"/>
       <c r="R20" s="140"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" t="str">
         <f t="shared" si="1"/>
         <v>FTE-TRAELC</v>
@@ -6901,7 +6884,7 @@
       <c r="Q21" s="140"/>
       <c r="R21" s="140"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -6919,7 +6902,7 @@
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
       <c r="D23" s="38"/>
@@ -6937,7 +6920,7 @@
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" s="31"/>
       <c r="C24" s="6"/>
       <c r="D24" s="31"/>
@@ -6955,7 +6938,7 @@
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="31"/>
       <c r="C25" s="6"/>
       <c r="D25" s="31"/>
@@ -6973,7 +6956,7 @@
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B26" s="31"/>
       <c r="C26" s="6"/>
       <c r="D26" s="31"/>
@@ -6991,7 +6974,7 @@
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" s="31"/>
       <c r="C27" s="6"/>
       <c r="D27" s="31"/>
@@ -7009,7 +6992,7 @@
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" s="31"/>
       <c r="C28" s="6"/>
       <c r="D28" s="31"/>
@@ -7027,7 +7010,7 @@
       <c r="Q28" s="38"/>
       <c r="R28" s="6"/>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="31"/>
       <c r="C29" s="6"/>
       <c r="D29" s="31"/>
@@ -7045,7 +7028,7 @@
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" s="32"/>
       <c r="C30" s="6"/>
       <c r="D30" s="31"/>
@@ -7054,7 +7037,7 @@
       <c r="G30" s="85"/>
       <c r="H30" s="15"/>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" s="32"/>
       <c r="C31" s="6"/>
       <c r="D31" s="31"/>
@@ -7063,13 +7046,13 @@
       <c r="G31" s="85"/>
       <c r="H31" s="15"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="58"/>
       <c r="C35" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="77"/>
       <c r="C36" s="1" t="s">
         <v>160</v>
@@ -7084,41 +7067,41 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" customWidth="1"/>
+    <col min="11" max="11" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="2" style="38" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" customWidth="1"/>
     <col min="14" max="14" width="2" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" customWidth="1"/>
-    <col min="16" max="16" width="7.140625" customWidth="1"/>
+    <col min="15" max="15" width="12.44140625" customWidth="1"/>
+    <col min="16" max="16" width="7.109375" customWidth="1"/>
     <col min="17" max="17" width="11" customWidth="1"/>
-    <col min="18" max="18" width="63.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" customWidth="1"/>
+    <col min="18" max="18" width="63.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" customWidth="1"/>
     <col min="20" max="20" width="12" customWidth="1"/>
-    <col min="21" max="21" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.28515625" customWidth="1"/>
+    <col min="21" max="21" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.33203125" customWidth="1"/>
     <col min="23" max="23" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B1" s="12" t="s">
         <v>73</v>
       </c>
@@ -7142,7 +7125,7 @@
       </c>
       <c r="I1" s="43"/>
     </row>
-    <row r="2" spans="2:23" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:23" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B2" s="14" t="str">
         <f>'EB1'!B9</f>
         <v>TRA</v>
@@ -7181,7 +7164,7 @@
       <c r="V2" s="136"/>
       <c r="W2" s="136"/>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
       <c r="O3" s="137" t="s">
         <v>7</v>
       </c>
@@ -7210,7 +7193,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:23" s="6" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:23" s="6" customFormat="1" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
@@ -7245,7 +7228,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:23" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:23" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -7272,7 +7255,7 @@
       <c r="V5" s="144"/>
       <c r="W5" s="144"/>
     </row>
-    <row r="6" spans="2:23" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:23" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -7297,7 +7280,7 @@
       <c r="V6" s="144"/>
       <c r="W6" s="144"/>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
       <c r="O7" s="142" t="s">
         <v>105</v>
       </c>
@@ -7319,7 +7302,7 @@
       <c r="V7" s="142"/>
       <c r="W7" s="142"/>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D9" s="5" t="s">
         <v>13</v>
       </c>
@@ -7339,7 +7322,7 @@
       <c r="V9" s="142"/>
       <c r="W9" s="142"/>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B10" s="21" t="s">
         <v>1</v>
       </c>
@@ -7402,7 +7385,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="2:23" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:23" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="20" t="s">
         <v>39</v>
       </c>
@@ -7465,7 +7448,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="2:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:23" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="19" t="s">
         <v>91</v>
       </c>
@@ -7510,7 +7493,7 @@
       <c r="V12" s="139"/>
       <c r="W12" s="139"/>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B13" t="str">
         <f t="shared" ref="B13:B24" si="0">Q13</f>
         <v>TCAREGAS</v>
@@ -7574,7 +7557,7 @@
       </c>
       <c r="W13" s="140"/>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B14" t="str">
         <f t="shared" si="0"/>
         <v>TCAREDSL</v>
@@ -7636,7 +7619,7 @@
       </c>
       <c r="W14" s="140"/>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B15" t="str">
         <f t="shared" si="0"/>
         <v>TCARELPG</v>
@@ -7698,7 +7681,7 @@
       </c>
       <c r="W15" s="140"/>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B16" t="str">
         <f t="shared" si="0"/>
         <v>TCAREGSL</v>
@@ -7760,7 +7743,7 @@
       </c>
       <c r="W16" s="140"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B17" t="str">
         <f>Q17</f>
         <v>TCAREBIO</v>
@@ -7822,7 +7805,7 @@
       </c>
       <c r="W17" s="140"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B18" s="27" t="str">
         <f t="shared" si="0"/>
         <v>TCAREELC</v>
@@ -7885,7 +7868,7 @@
       </c>
       <c r="W18" s="146"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B19" t="str">
         <f t="shared" si="0"/>
         <v>TPUBEGAS</v>
@@ -7947,7 +7930,7 @@
       </c>
       <c r="W19" s="140"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B20" t="str">
         <f t="shared" si="0"/>
         <v>TPUBEDSL</v>
@@ -8009,7 +7992,7 @@
       </c>
       <c r="W20" s="140"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B21" t="str">
         <f t="shared" si="0"/>
         <v>TPUBELPG</v>
@@ -8071,7 +8054,7 @@
       </c>
       <c r="W21" s="140"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B22" t="str">
         <f t="shared" si="0"/>
         <v>TPUBEGSL</v>
@@ -8133,7 +8116,7 @@
       </c>
       <c r="W22" s="140"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B23" t="str">
         <f>Q23</f>
         <v>TPUBEBIO</v>
@@ -8195,7 +8178,7 @@
       </c>
       <c r="W23" s="140"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B24" s="27" t="str">
         <f t="shared" si="0"/>
         <v>TPUBEELC</v>
@@ -8257,7 +8240,7 @@
       </c>
       <c r="W24" s="146"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
@@ -8268,7 +8251,7 @@
       <c r="V25" s="6"/>
       <c r="W25" s="6"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B27" s="58"/>
       <c r="C27" s="1" t="s">
         <v>159</v>
@@ -8277,7 +8260,7 @@
       <c r="L27" s="11"/>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B28" s="77"/>
       <c r="C28" s="1" t="s">
         <v>160</v>
@@ -8287,14 +8270,14 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="K29" s="1"/>
       <c r="L29" s="11"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -8319,11 +8302,11 @@
       <c r="V30"/>
       <c r="W30"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E32" s="1"/>
     </row>
   </sheetData>
@@ -8334,27 +8317,27 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
     <col min="6" max="6" width="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" customWidth="1"/>
     <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B1" s="12" t="s">
         <v>73</v>
       </c>
@@ -8371,7 +8354,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="14" t="s">
         <v>83</v>
       </c>
@@ -8386,7 +8369,7 @@
         <v>M€2005</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
@@ -8397,7 +8380,7 @@
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>80</v>
       </c>
@@ -8423,7 +8406,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" ht="21" x14ac:dyDescent="0.25">
       <c r="B7" s="20" t="s">
         <v>81</v>
       </c>
@@ -8445,7 +8428,7 @@
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
     </row>
-    <row r="8" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="19" t="s">
         <v>91</v>
       </c>
@@ -8462,7 +8445,7 @@
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>35</v>
       </c>
@@ -8491,7 +8474,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>35</v>
       </c>
@@ -8520,7 +8503,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G11" s="1" t="s">
         <v>120</v>
       </c>
@@ -8535,7 +8518,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E12" s="36"/>
       <c r="G12" s="40" t="s">
         <v>120</v>
@@ -8551,7 +8534,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E13" s="10"/>
       <c r="G13" s="1" t="s">
         <v>120</v>
@@ -8567,7 +8550,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G14" s="1" t="s">
         <v>120</v>
       </c>
@@ -8582,7 +8565,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E15" s="10"/>
       <c r="G15" s="1" t="s">
         <v>120</v>
@@ -8598,7 +8581,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G16" s="1" t="s">
         <v>120</v>
       </c>
@@ -8613,13 +8596,13 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="58"/>
       <c r="C23" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="77"/>
       <c r="C24" s="1" t="s">
         <v>160</v>
@@ -8632,19 +8615,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B3:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="48" t="s">
         <v>149</v>
       </c>
@@ -8655,7 +8638,7 @@
       <c r="G3" s="48"/>
       <c r="H3" s="48"/>
     </row>
-    <row r="4" spans="2:9" s="6" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" s="6" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="49"/>
       <c r="C4" s="49"/>
       <c r="D4" s="49"/>
@@ -8663,7 +8646,7 @@
       <c r="F4" s="49"/>
       <c r="G4" s="49"/>
     </row>
-    <row r="5" spans="2:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B5" s="46" t="s">
         <v>150</v>
       </c>
@@ -8671,7 +8654,7 @@
       <c r="G5" s="38"/>
       <c r="H5" s="38"/>
     </row>
-    <row r="6" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="51" t="s">
         <v>0</v>
       </c>
@@ -8695,7 +8678,7 @@
       <c r="H6" s="50"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="19" t="s">
         <v>91</v>
       </c>
@@ -8715,7 +8698,7 @@
       <c r="H7" s="123"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="50" t="str">
         <f>DemTechs_TRA!Q7</f>
         <v>TRACO2</v>
@@ -8736,21 +8719,21 @@
       <c r="H8" s="124"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G10" s="38"/>
       <c r="H10" s="38"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="58"/>
       <c r="C23" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="77"/>
       <c r="C24" s="1" t="s">
         <v>160</v>
